--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H2">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I2">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J2">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N2">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q2">
-        <v>89.17775536522255</v>
+        <v>0.2661908755706667</v>
       </c>
       <c r="R2">
-        <v>802.5997982870031</v>
+        <v>2.395717880136</v>
       </c>
       <c r="S2">
-        <v>0.3603412134912822</v>
+        <v>0.006909024001778714</v>
       </c>
       <c r="T2">
-        <v>0.3603412134912823</v>
+        <v>0.006909024001778712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H3">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I3">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J3">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P3">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q3">
-        <v>1.749169011608444</v>
+        <v>0.5086646261573333</v>
       </c>
       <c r="R3">
-        <v>15.742521104476</v>
+        <v>4.577981635416</v>
       </c>
       <c r="S3">
-        <v>0.007067880119464594</v>
+        <v>0.01320246647614275</v>
       </c>
       <c r="T3">
-        <v>0.007067880119464594</v>
+        <v>0.01320246647614275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H4">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I4">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J4">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N4">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O4">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P4">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q4">
-        <v>0.6565127796587777</v>
+        <v>0.3854157365286666</v>
       </c>
       <c r="R4">
-        <v>5.908615016929001</v>
+        <v>3.468741628758</v>
       </c>
       <c r="S4">
-        <v>0.002652776028348383</v>
+        <v>0.01000352310585816</v>
       </c>
       <c r="T4">
-        <v>0.002652776028348383</v>
+        <v>0.01000352310585816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H5">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I5">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J5">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N5">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q5">
-        <v>85.87415969648433</v>
+        <v>14.71674518117533</v>
       </c>
       <c r="R5">
-        <v>772.867437268359</v>
+        <v>132.450706630578</v>
       </c>
       <c r="S5">
-        <v>0.3469923501196671</v>
+        <v>0.3819753230339733</v>
       </c>
       <c r="T5">
-        <v>0.3469923501196671</v>
+        <v>0.3819753230339732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.486577</v>
       </c>
       <c r="I6">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J6">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N6">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q6">
-        <v>29.06192864016456</v>
+        <v>0.2983055256102223</v>
       </c>
       <c r="R6">
-        <v>261.5573577614811</v>
+        <v>2.684749730492</v>
       </c>
       <c r="S6">
-        <v>0.1174307492906228</v>
+        <v>0.007742564548412175</v>
       </c>
       <c r="T6">
-        <v>0.1174307492906229</v>
+        <v>0.007742564548412175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.486577</v>
       </c>
       <c r="I7">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J7">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.143476</v>
       </c>
       <c r="O7">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P7">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q7">
         <v>0.5700325690724445</v>
@@ -883,10 +883,10 @@
         <v>5.130293121652</v>
       </c>
       <c r="S7">
-        <v>0.002303334803930509</v>
+        <v>0.01479528061611401</v>
       </c>
       <c r="T7">
-        <v>0.002303334803930509</v>
+        <v>0.01479528061611401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.486577</v>
       </c>
       <c r="I8">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J8">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N8">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O8">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P8">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q8">
-        <v>0.2139494033647778</v>
+        <v>0.4319142931445555</v>
       </c>
       <c r="R8">
-        <v>1.925544630283</v>
+        <v>3.887228638301</v>
       </c>
       <c r="S8">
-        <v>0.0008645069313357622</v>
+        <v>0.01121040009973903</v>
       </c>
       <c r="T8">
-        <v>0.0008645069313357623</v>
+        <v>0.01121040009973903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.486577</v>
       </c>
       <c r="I9">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J9">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N9">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q9">
-        <v>27.98532762921034</v>
+        <v>16.49224977051011</v>
       </c>
       <c r="R9">
-        <v>251.867948662893</v>
+        <v>148.430247934591</v>
       </c>
       <c r="S9">
-        <v>0.1130805196493364</v>
+        <v>0.428058810293572</v>
       </c>
       <c r="T9">
-        <v>0.1130805196493364</v>
+        <v>0.428058810293572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H10">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I10">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J10">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N10">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q10">
-        <v>6.127139182996777</v>
+        <v>0.08145632305777778</v>
       </c>
       <c r="R10">
-        <v>55.144252646971</v>
+        <v>0.7331069075200001</v>
       </c>
       <c r="S10">
-        <v>0.02475797646384876</v>
+        <v>0.002114211052111827</v>
       </c>
       <c r="T10">
-        <v>0.02475797646384876</v>
+        <v>0.002114211052111827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H11">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I11">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J11">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.143476</v>
       </c>
       <c r="O11">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P11">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q11">
-        <v>0.1201802169702222</v>
+        <v>0.1556550352355555</v>
       </c>
       <c r="R11">
-        <v>1.081621952732</v>
+        <v>1.40089531712</v>
       </c>
       <c r="S11">
-        <v>0.0004856130886378403</v>
+        <v>0.004040049727980505</v>
       </c>
       <c r="T11">
-        <v>0.0004856130886378403</v>
+        <v>0.004040049727980506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H12">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I12">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J12">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N12">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O12">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P12">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q12">
-        <v>0.04510704670588889</v>
+        <v>0.1179399882844444</v>
       </c>
       <c r="R12">
-        <v>0.405963420353</v>
+        <v>1.06145989456</v>
       </c>
       <c r="S12">
-        <v>0.0001822643761377586</v>
+        <v>0.00306115004160015</v>
       </c>
       <c r="T12">
-        <v>0.0001822643761377587</v>
+        <v>0.00306115004160015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H13">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I13">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J13">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N13">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q13">
-        <v>5.900158918873666</v>
+        <v>4.503429906328888</v>
       </c>
       <c r="R13">
-        <v>53.10143026986299</v>
+        <v>40.53086915695999</v>
       </c>
       <c r="S13">
-        <v>0.02384081563738788</v>
+        <v>0.1168871970027174</v>
       </c>
       <c r="T13">
-        <v>0.02384081563738788</v>
+        <v>0.1168871970027174</v>
       </c>
     </row>
   </sheetData>
